--- a/materiais/modelos_excel/lista_materiais.xlsx
+++ b/materiais/modelos_excel/lista_materiais.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp2\htdocs\dvmsys_local\materiais\modelos_excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Developer\XAMPP\htdocs\erp_sistema\materiais\modelos_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -100,10 +100,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -399,16 +399,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="5" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="5"/>
+      <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
